--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="22515" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="22515" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J18" sqref="J18:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:M20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO21" sqref="A1:AO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -178,13 +178,8 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -199,6 +194,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,449 +503,449 @@
   <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO21" sqref="A1:AO21"/>
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="2.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" style="3" customWidth="1"/>
+    <col min="10" max="12" width="2.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="3" customWidth="1"/>
+    <col min="14" max="16" width="2.28515625" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="3" customWidth="1"/>
+    <col min="18" max="20" width="2.28515625" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="3" customWidth="1"/>
+    <col min="22" max="24" width="2.28515625" customWidth="1"/>
+    <col min="25" max="25" width="2.28515625" style="3" customWidth="1"/>
+    <col min="26" max="28" width="2.28515625" customWidth="1"/>
+    <col min="29" max="29" width="2.28515625" style="3" customWidth="1"/>
+    <col min="30" max="32" width="2.28515625" customWidth="1"/>
+    <col min="33" max="33" width="2.28515625" style="3" customWidth="1"/>
+    <col min="34" max="36" width="2.28515625" customWidth="1"/>
+    <col min="37" max="37" width="2.28515625" style="3" customWidth="1"/>
+    <col min="38" max="40" width="2.28515625" customWidth="1"/>
+    <col min="41" max="41" width="2.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="3">
+      <c r="B1" s="18">
         <v>5.03</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="1">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18">
         <v>6.03</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21">
         <v>11.03</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="17">
         <v>12.03</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17">
         <v>13.03</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17">
         <v>18.03</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2">
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17">
         <v>19.03</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17">
         <v>20.03</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2">
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17">
         <v>25.03</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17">
         <v>26.03</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-    </row>
-    <row r="2" spans="1:41" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AO2" s="11"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+    </row>
+    <row r="2" spans="1:41" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="J7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="K8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="17"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="12"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="17"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="17"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="12"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="17"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="16"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="14"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="16"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="9"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="17"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
-      <c r="AN19" s="16"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="12"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="14"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="9"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="15"/>
-      <c r="AI21" s="15"/>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="15"/>
-      <c r="AM21" s="15"/>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="14"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -961,7 +961,7 @@
     <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Zeitplan erstellen</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>IPA-Bericht fertig Stellen</t>
+  </si>
+  <si>
+    <t>Geplant</t>
+  </si>
+  <si>
+    <t>Realität</t>
+  </si>
+  <si>
+    <t>Meilenstein 1 Planung beendet</t>
+  </si>
+  <si>
+    <t>Meilenstein 2 Installation Beendet</t>
+  </si>
+  <si>
+    <t>Meilenstein 3 Test beendet</t>
+  </si>
+  <si>
+    <t>Meilenstein 4 Projektabgabe</t>
+  </si>
+  <si>
+    <t>Software anpassen</t>
   </si>
 </sst>
 </file>
@@ -95,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -172,11 +199,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -199,6 +257,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -500,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +605,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="18">
         <v>5.03</v>
       </c>
@@ -595,6 +670,9 @@
       <c r="AO1" s="17"/>
     </row>
     <row r="2" spans="1:41" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="E2" s="6"/>
       <c r="I2" s="6"/>
@@ -615,338 +693,917 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="J7" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="N10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="12"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="26"/>
+    </row>
+    <row r="13" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="12"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="12"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="12"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="12"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="12"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="12"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="12"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="12"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="12"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="12"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="12"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="12"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="12"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="9"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="12"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="12"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="32"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="9"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="9"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="32"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="9"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+    </row>
+    <row r="40" spans="1:42" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="1"/>
+    </row>
+    <row r="41" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="12"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="12"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="12"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="9"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="9"/>
-    </row>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="9"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO49" s="9"/>
+    </row>
+    <row r="50" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+      <c r="AJ50" s="24"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="26"/>
+    </row>
+    <row r="51" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="Z1:AC1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -252,11 +252,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -271,6 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS36" sqref="AS36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,69 +611,69 @@
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="32">
         <v>5.03</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="32">
         <v>6.03</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35">
         <v>11.03</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="17">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="31">
         <v>12.03</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31">
         <v>13.03</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17">
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31">
         <v>18.03</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17">
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31">
         <v>19.03</v>
       </c>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17">
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31">
         <v>20.03</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17">
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31">
         <v>25.03</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17">
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31">
         <v>26.03</v>
       </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
     </row>
     <row r="2" spans="1:41" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
@@ -693,8 +696,8 @@
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -704,8 +707,8 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -717,8 +720,8 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E8" s="13"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -730,8 +733,8 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G10" s="11"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -742,47 +745,47 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="26"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="21"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -793,7 +796,7 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H14" s="11"/>
-      <c r="J14" s="33"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -805,7 +808,7 @@
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="33"/>
+      <c r="K16" s="28"/>
       <c r="M16" s="2"/>
       <c r="N16" s="1"/>
     </row>
@@ -820,8 +823,8 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H18" s="11"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -833,7 +836,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I20" s="12"/>
-      <c r="N20" s="31"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -847,8 +850,8 @@
       <c r="M21" s="12"/>
       <c r="O21" s="10"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="28"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
       <c r="U21" s="12"/>
@@ -864,10 +867,10 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
-      <c r="O22" s="33"/>
+      <c r="O22" s="28"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="28"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
       <c r="U22" s="12"/>
@@ -889,7 +892,7 @@
       <c r="N23" s="11"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="28"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="12"/>
@@ -908,8 +911,8 @@
       <c r="N24" s="11"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="11"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="33"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="28"/>
       <c r="T24" s="11"/>
       <c r="U24" s="12"/>
       <c r="V24" s="11"/>
@@ -930,7 +933,7 @@
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="17"/>
       <c r="R25" s="7"/>
       <c r="S25" s="10"/>
       <c r="T25" s="11"/>
@@ -952,8 +955,8 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="11"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="32"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -991,8 +994,8 @@
       <c r="M28" s="12"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="32"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="27"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
@@ -1040,7 +1043,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
       <c r="U30" s="12"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="28"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="12"/>
@@ -1084,7 +1087,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="12"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="33"/>
+      <c r="W32" s="28"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="12"/>
     </row>
@@ -1128,8 +1131,8 @@
       <c r="U34" s="12"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="32"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="27"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1165,16 +1168,16 @@
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="H36" s="11"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
       <c r="T36" s="11"/>
       <c r="U36" s="12"/>
       <c r="V36" s="11"/>
@@ -1230,16 +1233,16 @@
       <c r="M38" s="12"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="32"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="27"/>
       <c r="AG38" s="12"/>
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
@@ -1283,47 +1286,47 @@
       <c r="AN39" s="11"/>
     </row>
     <row r="40" spans="1:42" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="26"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="21"/>
       <c r="AP40" s="1"/>
     </row>
     <row r="41" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1386,7 @@
       <c r="Y42" s="12"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
+      <c r="AF42" s="28"/>
       <c r="AG42" s="12"/>
       <c r="AH42" s="11"/>
       <c r="AI42" s="11"/>
@@ -1450,14 +1453,14 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
       <c r="AF44" s="11"/>
-      <c r="AG44" s="12"/>
+      <c r="AG44" s="27"/>
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
@@ -1504,42 +1507,50 @@
       <c r="AM45" s="11"/>
       <c r="AN45" s="11"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="12"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="11"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="11"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="21"/>
+    </row>
+    <row r="47" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1561,47 +1572,47 @@
       <c r="AO49" s="9"/>
     </row>
     <row r="50" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="26"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="21"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="21"/>
+      <c r="AL50" s="19"/>
+      <c r="AM50" s="19"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="21"/>
     </row>
     <row r="51" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -266,14 +266,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS36" sqref="AS36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ50" sqref="AQ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,66 +611,66 @@
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="35">
         <v>5.03</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="32">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="35">
         <v>6.03</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38">
         <v>11.03</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="31">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="34">
         <v>12.03</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31">
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34">
         <v>13.03</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31">
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34">
         <v>18.03</v>
       </c>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31">
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34">
         <v>19.03</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34">
         <v>20.03</v>
       </c>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31">
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34">
         <v>25.03</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34">
         <v>26.03</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
     </row>
     <row r="2" spans="1:41" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -1516,35 +1516,35 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="22"/>
-      <c r="I46" s="36"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="31"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-      <c r="Q46" s="36"/>
+      <c r="Q46" s="31"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="38"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="33"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="22"/>
       <c r="AB46" s="22"/>
-      <c r="AC46" s="36"/>
+      <c r="AC46" s="31"/>
       <c r="AD46" s="22"/>
       <c r="AE46" s="22"/>
       <c r="AF46" s="22"/>
-      <c r="AG46" s="36"/>
+      <c r="AG46" s="31"/>
       <c r="AH46" s="22"/>
       <c r="AI46" s="22"/>
       <c r="AJ46" s="22"/>
-      <c r="AK46" s="36"/>
+      <c r="AK46" s="31"/>
       <c r="AL46" s="22"/>
       <c r="AM46" s="22"/>
       <c r="AN46" s="22"/>
@@ -1564,6 +1564,16 @@
       <c r="AM47" s="10"/>
       <c r="AN47" s="10"/>
       <c r="AO47" s="9"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="27"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="27"/>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1612,7 +1622,7 @@
       <c r="AL50" s="19"/>
       <c r="AM50" s="19"/>
       <c r="AN50" s="19"/>
-      <c r="AO50" s="21"/>
+      <c r="AO50" s="29"/>
     </row>
     <row r="51" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
